--- a/team_specific_matrix/South Fla._A.xlsx
+++ b/team_specific_matrix/South Fla._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1942148760330578</v>
+        <v>0.1967741935483871</v>
       </c>
       <c r="C2">
-        <v>0.5578512396694215</v>
+        <v>0.5580645161290323</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008264462809917356</v>
+        <v>0.00967741935483871</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1570247933884298</v>
+        <v>0.1548387096774194</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08264462809917356</v>
+        <v>0.08064516129032258</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01428571428571429</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="C3">
-        <v>0.02142857142857143</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007142857142857143</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7857142857142857</v>
+        <v>0.7955801104972375</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1714285714285714</v>
+        <v>0.1491712707182321</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05405405405405406</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.3783783783783784</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5675675675675675</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0658682634730539</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005988023952095809</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04790419161676647</v>
+        <v>0.046875</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3053892215568862</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01796407185628742</v>
+        <v>0.015625</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1137724550898204</v>
+        <v>0.109375</v>
       </c>
       <c r="R6">
-        <v>0.1017964071856287</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="S6">
-        <v>0.3413173652694611</v>
+        <v>0.359375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1056338028169014</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02112676056338028</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02816901408450704</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2042253521126761</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.147887323943662</v>
+        <v>0.1686046511627907</v>
       </c>
       <c r="R7">
-        <v>0.09859154929577464</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="S7">
-        <v>0.3943661971830986</v>
+        <v>0.3662790697674418</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08169934640522876</v>
+        <v>0.1010928961748634</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0130718954248366</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05555555555555555</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1274509803921569</v>
+        <v>0.1174863387978142</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009803921568627451</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1568627450980392</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="R8">
-        <v>0.1339869281045752</v>
+        <v>0.1284153005464481</v>
       </c>
       <c r="S8">
-        <v>0.4215686274509804</v>
+        <v>0.4207650273224044</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08029197080291971</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0072992700729927</v>
+        <v>0.0125</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05109489051094891</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08759124087591241</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0218978102189781</v>
+        <v>0.025</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1824817518248175</v>
+        <v>0.175</v>
       </c>
       <c r="R9">
-        <v>0.1313868613138686</v>
+        <v>0.11875</v>
       </c>
       <c r="S9">
-        <v>0.4379562043795621</v>
+        <v>0.44375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1295180722891566</v>
+        <v>0.129644921552436</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02811244979919679</v>
+        <v>0.02559867877786953</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008257638315441783</v>
       </c>
       <c r="F10">
-        <v>0.07630522088353414</v>
+        <v>0.07101568951279934</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.108433734939759</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01104417670682731</v>
+        <v>0.009083402146985962</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1807228915662651</v>
+        <v>0.1907514450867052</v>
       </c>
       <c r="R10">
-        <v>0.1004016064257028</v>
+        <v>0.0916597853014038</v>
       </c>
       <c r="S10">
-        <v>0.3654618473895582</v>
+        <v>0.365813377374071</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1255605381165919</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09865470852017937</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.210762331838565</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L11">
-        <v>0.5201793721973094</v>
+        <v>0.4962962962962963</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04484304932735426</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7295081967213115</v>
+        <v>0.75177304964539</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2131147540983606</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="K12">
-        <v>0.00819672131147541</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="L12">
-        <v>0.02459016393442623</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02459016393442623</v>
+        <v>0.02836879432624113</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6222222222222222</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3111111111111111</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.07547169811320754</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03821656050955414</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1146496815286624</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="I15">
-        <v>0.05732484076433121</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="J15">
-        <v>0.3821656050955414</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="K15">
-        <v>0.09554140127388536</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01273885350318471</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03184713375796178</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.267515923566879</v>
+        <v>0.2606382978723404</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01973684210526316</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1578947368421053</v>
+        <v>0.1701030927835052</v>
       </c>
       <c r="I16">
-        <v>0.05263157894736842</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="J16">
-        <v>0.4276315789473684</v>
+        <v>0.4278350515463917</v>
       </c>
       <c r="K16">
-        <v>0.1381578947368421</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03289473684210526</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05921052631578947</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1118421052631579</v>
+        <v>0.1185567010309278</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02033898305084746</v>
+        <v>0.01617250673854448</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.1967654986522911</v>
       </c>
       <c r="I17">
-        <v>0.0711864406779661</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="J17">
-        <v>0.4067796610169492</v>
+        <v>0.4177897574123989</v>
       </c>
       <c r="K17">
-        <v>0.09491525423728814</v>
+        <v>0.08894878706199461</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02033898305084746</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002695417789757413</v>
       </c>
       <c r="O17">
-        <v>0.04745762711864407</v>
+        <v>0.04851752021563342</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1389830508474576</v>
+        <v>0.1347708894878706</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02105263157894737</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1473684210526316</v>
+        <v>0.1374407582938389</v>
       </c>
       <c r="I18">
-        <v>0.09473684210526316</v>
+        <v>0.09004739336492891</v>
       </c>
       <c r="J18">
-        <v>0.4157894736842105</v>
+        <v>0.4170616113744076</v>
       </c>
       <c r="K18">
-        <v>0.07368421052631578</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005263157894736842</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1052631578947368</v>
+        <v>0.1090047393364929</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1368421052631579</v>
+        <v>0.1327014218009479</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01880877742946709</v>
+        <v>0.01740644038294169</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1880877742946709</v>
+        <v>0.1836379460400348</v>
       </c>
       <c r="I19">
-        <v>0.08463949843260188</v>
+        <v>0.08006962576153177</v>
       </c>
       <c r="J19">
-        <v>0.3908045977011494</v>
+        <v>0.3942558746736293</v>
       </c>
       <c r="K19">
-        <v>0.1024033437826541</v>
+        <v>0.1053089643167972</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03448275862068965</v>
+        <v>0.03220191470844212</v>
       </c>
       <c r="N19">
-        <v>0.006269592476489028</v>
+        <v>0.006092254134029591</v>
       </c>
       <c r="O19">
-        <v>0.06687565308254964</v>
+        <v>0.07049608355091384</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1076280041797283</v>
+        <v>0.1105308964316797</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/South Fla._A.xlsx
+++ b/team_specific_matrix/South Fla._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1967741935483871</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C2">
-        <v>0.5580645161290323</v>
+        <v>0.5621301775147929</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00967741935483871</v>
+        <v>0.008875739644970414</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1548387096774194</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08064516129032258</v>
+        <v>0.08284023668639054</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01104972375690608</v>
+        <v>0.01</v>
       </c>
       <c r="C3">
-        <v>0.03867403314917127</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005524861878453038</v>
+        <v>0.005</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7955801104972375</v>
+        <v>0.8</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1491712707182321</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04878048780487805</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4146341463414634</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5365853658536586</v>
+        <v>0.5227272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07291666666666667</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005208333333333333</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.046875</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2916666666666667</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.015625</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.109375</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="R6">
-        <v>0.09895833333333333</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="S6">
-        <v>0.359375</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1220930232558139</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01744186046511628</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04651162790697674</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1976744186046512</v>
+        <v>0.2074468085106383</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1686046511627907</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R7">
-        <v>0.08139534883720931</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="S7">
-        <v>0.3662790697674418</v>
+        <v>0.3617021276595745</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1010928961748634</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01092896174863388</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04918032786885246</v>
+        <v>0.05089058524173028</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1174863387978142</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00819672131147541</v>
+        <v>0.01017811704834606</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1639344262295082</v>
+        <v>0.1653944020356234</v>
       </c>
       <c r="R8">
-        <v>0.1284153005464481</v>
+        <v>0.1272264631043257</v>
       </c>
       <c r="S8">
-        <v>0.4207650273224044</v>
+        <v>0.4096692111959288</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08749999999999999</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0125</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08749999999999999</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.025</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.175</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R9">
-        <v>0.11875</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="S9">
-        <v>0.44375</v>
+        <v>0.4294117647058823</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.129644921552436</v>
+        <v>0.1329746348962337</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02559867877786953</v>
+        <v>0.02459646425826287</v>
       </c>
       <c r="E10">
-        <v>0.0008257638315441783</v>
+        <v>0.0007686395080707148</v>
       </c>
       <c r="F10">
-        <v>0.07101568951279934</v>
+        <v>0.07148347425057648</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.115606936416185</v>
+        <v>0.1145272867025365</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009083402146985962</v>
+        <v>0.008455034588777863</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1907514450867052</v>
+        <v>0.1906225980015373</v>
       </c>
       <c r="R10">
-        <v>0.0916597853014038</v>
+        <v>0.09069946195234435</v>
       </c>
       <c r="S10">
-        <v>0.365813377374071</v>
+        <v>0.3658724058416603</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1444444444444444</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.2222222222222222</v>
+        <v>0.2233333333333333</v>
       </c>
       <c r="L11">
-        <v>0.4962962962962963</v>
+        <v>0.49</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03703703703703703</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75177304964539</v>
+        <v>0.7337662337662337</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1914893617021277</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="K12">
-        <v>0.007092198581560284</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="L12">
-        <v>0.02127659574468085</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02836879432624113</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6037735849056604</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3207547169811321</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07547169811320754</v>
+        <v>0.06779661016949153</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03191489361702127</v>
+        <v>0.03</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1223404255319149</v>
+        <v>0.125</v>
       </c>
       <c r="I15">
-        <v>0.05319148936170213</v>
+        <v>0.05</v>
       </c>
       <c r="J15">
-        <v>0.4042553191489361</v>
+        <v>0.41</v>
       </c>
       <c r="K15">
-        <v>0.0851063829787234</v>
+        <v>0.09</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01595744680851064</v>
+        <v>0.02</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02659574468085106</v>
+        <v>0.025</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2606382978723404</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02061855670103093</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1701030927835052</v>
+        <v>0.1712962962962963</v>
       </c>
       <c r="I16">
-        <v>0.05670103092783505</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J16">
-        <v>0.4278350515463917</v>
+        <v>0.412037037037037</v>
       </c>
       <c r="K16">
-        <v>0.1237113402061856</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02577319587628866</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05670103092783505</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1185567010309278</v>
+        <v>0.1435185185185185</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01617250673854448</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1967654986522911</v>
+        <v>0.1854636591478697</v>
       </c>
       <c r="I17">
-        <v>0.07547169811320754</v>
+        <v>0.07769423558897243</v>
       </c>
       <c r="J17">
-        <v>0.4177897574123989</v>
+        <v>0.4235588972431077</v>
       </c>
       <c r="K17">
-        <v>0.08894878706199461</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01886792452830189</v>
+        <v>0.02005012531328321</v>
       </c>
       <c r="N17">
-        <v>0.002695417789757413</v>
+        <v>0.002506265664160401</v>
       </c>
       <c r="O17">
-        <v>0.04851752021563342</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1347708894878706</v>
+        <v>0.1328320802005012</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02369668246445497</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1374407582938389</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="I18">
-        <v>0.09004739336492891</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="J18">
-        <v>0.4170616113744076</v>
+        <v>0.4273127753303965</v>
       </c>
       <c r="K18">
-        <v>0.07582938388625593</v>
+        <v>0.07048458149779736</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01421800947867299</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1090047393364929</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1327014218009479</v>
+        <v>0.1409691629955947</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01740644038294169</v>
+        <v>0.01610305958132045</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1836379460400348</v>
+        <v>0.1859903381642512</v>
       </c>
       <c r="I19">
-        <v>0.08006962576153177</v>
+        <v>0.07890499194847021</v>
       </c>
       <c r="J19">
-        <v>0.3942558746736293</v>
+        <v>0.3864734299516908</v>
       </c>
       <c r="K19">
-        <v>0.1053089643167972</v>
+        <v>0.1103059581320451</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03220191470844212</v>
+        <v>0.0322061191626409</v>
       </c>
       <c r="N19">
-        <v>0.006092254134029591</v>
+        <v>0.005636070853462158</v>
       </c>
       <c r="O19">
-        <v>0.07049608355091384</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1105308964316797</v>
+        <v>0.1167471819645733</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/South Fla._A.xlsx
+++ b/team_specific_matrix/South Fla._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1923076923076923</v>
+        <v>0.1895043731778426</v>
       </c>
       <c r="C2">
-        <v>0.5621301775147929</v>
+        <v>0.5685131195335277</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008875739644970414</v>
+        <v>0.008746355685131196</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1538461538461539</v>
+        <v>0.1516034985422741</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08284023668639054</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8</v>
+        <v>0.8009708737864077</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.145</v>
+        <v>0.1407766990291262</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4318181818181818</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5227272727272727</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06862745098039216</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004901960784313725</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04411764705882353</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2941176470588235</v>
+        <v>0.2883720930232558</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01470588235294118</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1127450980392157</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="R6">
-        <v>0.107843137254902</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="S6">
-        <v>0.3529411764705883</v>
+        <v>0.3674418604651163</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1223404255319149</v>
+        <v>0.1185567010309278</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01595744680851064</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0425531914893617</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2074468085106383</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1702127659574468</v>
+        <v>0.1701030927835052</v>
       </c>
       <c r="R7">
-        <v>0.0797872340425532</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="S7">
-        <v>0.3617021276595745</v>
+        <v>0.3659793814432989</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1068702290076336</v>
+        <v>0.1075794621026895</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01526717557251908</v>
+        <v>0.01466992665036675</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05089058524173028</v>
+        <v>0.0488997555012225</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1145038167938931</v>
+        <v>0.1124694376528117</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01017811704834606</v>
+        <v>0.009779951100244499</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1653944020356234</v>
+        <v>0.1638141809290954</v>
       </c>
       <c r="R8">
-        <v>0.1272264631043257</v>
+        <v>0.1271393643031785</v>
       </c>
       <c r="S8">
-        <v>0.4096692111959288</v>
+        <v>0.4156479217603912</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764706</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01176470588235294</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05882352941176471</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08823529411764706</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02352941176470588</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1764705882352941</v>
+        <v>0.1751412429378531</v>
       </c>
       <c r="R9">
-        <v>0.1235294117647059</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="S9">
-        <v>0.4294117647058823</v>
+        <v>0.4406779661016949</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1329746348962337</v>
+        <v>0.1306607275426875</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02459646425826287</v>
+        <v>0.0244988864142539</v>
       </c>
       <c r="E10">
-        <v>0.0007686395080707148</v>
+        <v>0.0007423904974016332</v>
       </c>
       <c r="F10">
-        <v>0.07148347425057648</v>
+        <v>0.07423904974016332</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1145272867025365</v>
+        <v>0.111358574610245</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008455034588777863</v>
+        <v>0.008166295471417966</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1906225980015373</v>
+        <v>0.1907943578322197</v>
       </c>
       <c r="R10">
-        <v>0.09069946195234435</v>
+        <v>0.09502598366740905</v>
       </c>
       <c r="S10">
-        <v>0.3658724058416603</v>
+        <v>0.3645137342242019</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1466666666666667</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="K11">
-        <v>0.2233333333333333</v>
+        <v>0.2200647249190938</v>
       </c>
       <c r="L11">
-        <v>0.49</v>
+        <v>0.4983818770226537</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04</v>
+        <v>0.03883495145631068</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7337662337662337</v>
+        <v>0.73125</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1948051948051948</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.006493506493506494</v>
+        <v>0.00625</v>
       </c>
       <c r="L12">
-        <v>0.01948051948051948</v>
+        <v>0.01875</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04545454545454546</v>
+        <v>0.04375</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6101694915254238</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3220338983050847</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06779661016949153</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.125</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="I15">
-        <v>0.05</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="J15">
-        <v>0.41</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="K15">
-        <v>0.09</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.025</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2415458937198068</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01851851851851852</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1712962962962963</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="I16">
-        <v>0.05555555555555555</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="J16">
-        <v>0.412037037037037</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K16">
-        <v>0.1203703703703704</v>
+        <v>0.1266968325791855</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05092592592592592</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1435185185185185</v>
+        <v>0.1402714932126697</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01754385964912281</v>
+        <v>0.01686746987951807</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1854636591478697</v>
+        <v>0.1855421686746988</v>
       </c>
       <c r="I17">
-        <v>0.07769423558897243</v>
+        <v>0.07710843373493977</v>
       </c>
       <c r="J17">
-        <v>0.4235588972431077</v>
+        <v>0.4265060240963855</v>
       </c>
       <c r="K17">
-        <v>0.08771929824561403</v>
+        <v>0.08674698795180723</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02005012531328321</v>
+        <v>0.02168674698795181</v>
       </c>
       <c r="N17">
-        <v>0.002506265664160401</v>
+        <v>0.002409638554216868</v>
       </c>
       <c r="O17">
-        <v>0.05263157894736842</v>
+        <v>0.05301204819277108</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1328320802005012</v>
+        <v>0.1301204819277108</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02202643171806168</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.13215859030837</v>
+        <v>0.1297071129707113</v>
       </c>
       <c r="I18">
-        <v>0.08370044052863436</v>
+        <v>0.07949790794979079</v>
       </c>
       <c r="J18">
-        <v>0.4273127753303965</v>
+        <v>0.4435146443514644</v>
       </c>
       <c r="K18">
-        <v>0.07048458149779736</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.013215859030837</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1101321585903084</v>
+        <v>0.1087866108786611</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1409691629955947</v>
+        <v>0.1380753138075314</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01610305958132045</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1859903381642512</v>
+        <v>0.1864801864801865</v>
       </c>
       <c r="I19">
-        <v>0.07890499194847021</v>
+        <v>0.07925407925407925</v>
       </c>
       <c r="J19">
-        <v>0.3864734299516908</v>
+        <v>0.3869463869463869</v>
       </c>
       <c r="K19">
-        <v>0.1103059581320451</v>
+        <v>0.1095571095571096</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0322061191626409</v>
+        <v>0.03108003108003108</v>
       </c>
       <c r="N19">
-        <v>0.005636070853462158</v>
+        <v>0.005439005439005439</v>
       </c>
       <c r="O19">
-        <v>0.06763285024154589</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1167471819645733</v>
+        <v>0.1157731157731158</v>
       </c>
     </row>
   </sheetData>
